--- a/Excel/TanpaELL/Hasil_Pengujian_Map_1_128_avg_length.xlsx
+++ b/Excel/TanpaELL/Hasil_Pengujian_Map_1_128_avg_length.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\Excel\TanpaELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335A0102-F71C-42C1-BB3A-F4EEE1AF0155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B635CC01-4BAE-4FE5-9762-993AFA22FD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="6216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waktu Pencarian" sheetId="1" r:id="rId1"/>
@@ -275,6 +275,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -621,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2140,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
